--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cthrc1-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cthrc1-Fzd3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.49403</v>
+        <v>0.026182</v>
       </c>
       <c r="H2">
-        <v>1.48209</v>
+        <v>0.078546</v>
       </c>
       <c r="I2">
-        <v>0.2841280960317652</v>
+        <v>0.02060098669457318</v>
       </c>
       <c r="J2">
-        <v>0.2841280960317651</v>
+        <v>0.02060098669457318</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.129292</v>
+        <v>0.196431</v>
       </c>
       <c r="N2">
-        <v>0.387876</v>
+        <v>0.589293</v>
       </c>
       <c r="O2">
-        <v>0.06615700391713267</v>
+        <v>0.09717285149889213</v>
       </c>
       <c r="P2">
-        <v>0.06615700391713268</v>
+        <v>0.09717285149889213</v>
       </c>
       <c r="Q2">
-        <v>0.06387412676</v>
+        <v>0.005142956442</v>
       </c>
       <c r="R2">
-        <v>0.57486714084</v>
+        <v>0.046286607978</v>
       </c>
       <c r="S2">
-        <v>0.01879706356214094</v>
+        <v>0.002001856620802412</v>
       </c>
       <c r="T2">
-        <v>0.01879706356214094</v>
+        <v>0.002001856620802412</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.49403</v>
+        <v>0.026182</v>
       </c>
       <c r="H3">
-        <v>1.48209</v>
+        <v>0.078546</v>
       </c>
       <c r="I3">
-        <v>0.2841280960317652</v>
+        <v>0.02060098669457318</v>
       </c>
       <c r="J3">
-        <v>0.2841280960317651</v>
+        <v>0.02060098669457318</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.4307096666666666</v>
+        <v>0.4307096666666667</v>
       </c>
       <c r="N3">
         <v>1.292129</v>
       </c>
       <c r="O3">
-        <v>0.2203884316493949</v>
+        <v>0.2130686423127578</v>
       </c>
       <c r="P3">
-        <v>0.220388431649395</v>
+        <v>0.2130686423127578</v>
       </c>
       <c r="Q3">
-        <v>0.2127834966233333</v>
+        <v>0.01127684049266667</v>
       </c>
       <c r="R3">
-        <v>1.91505146961</v>
+        <v>0.101491564434</v>
       </c>
       <c r="S3">
-        <v>0.06261854547196941</v>
+        <v>0.004389424265315896</v>
       </c>
       <c r="T3">
-        <v>0.06261854547196939</v>
+        <v>0.004389424265315895</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.49403</v>
+        <v>0.026182</v>
       </c>
       <c r="H4">
-        <v>1.48209</v>
+        <v>0.078546</v>
       </c>
       <c r="I4">
-        <v>0.2841280960317652</v>
+        <v>0.02060098669457318</v>
       </c>
       <c r="J4">
-        <v>0.2841280960317651</v>
+        <v>0.02060098669457318</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>4.182957</v>
       </c>
       <c r="O4">
-        <v>0.7134545644334723</v>
+        <v>0.68975850618835</v>
       </c>
       <c r="P4">
-        <v>0.7134545644334724</v>
+        <v>0.68975850618835</v>
       </c>
       <c r="Q4">
-        <v>0.6888354155700001</v>
+        <v>0.036506060058</v>
       </c>
       <c r="R4">
-        <v>6.199518740129999</v>
+        <v>0.328554540522</v>
       </c>
       <c r="S4">
-        <v>0.2027124869976548</v>
+        <v>0.01420970580845487</v>
       </c>
       <c r="T4">
-        <v>0.2027124869976548</v>
+        <v>0.01420970580845487</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>3.519535</v>
       </c>
       <c r="I5">
-        <v>0.6747220333901172</v>
+        <v>0.9231010325934437</v>
       </c>
       <c r="J5">
-        <v>0.6747220333901172</v>
+        <v>0.9231010325934434</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.129292</v>
+        <v>0.196431</v>
       </c>
       <c r="N5">
-        <v>0.387876</v>
+        <v>0.589293</v>
       </c>
       <c r="O5">
-        <v>0.06615700391713267</v>
+        <v>0.09717285149889213</v>
       </c>
       <c r="P5">
-        <v>0.06615700391713268</v>
+        <v>0.09717285149889213</v>
       </c>
       <c r="Q5">
-        <v>0.1516825730733333</v>
+        <v>0.230448593195</v>
       </c>
       <c r="R5">
-        <v>1.36514315766</v>
+        <v>2.074037338755</v>
       </c>
       <c r="S5">
-        <v>0.0446375882059657</v>
+        <v>0.08970035955867668</v>
       </c>
       <c r="T5">
-        <v>0.04463758820596571</v>
+        <v>0.08970035955867667</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.519535</v>
       </c>
       <c r="I6">
-        <v>0.6747220333901172</v>
+        <v>0.9231010325934437</v>
       </c>
       <c r="J6">
-        <v>0.6747220333901172</v>
+        <v>0.9231010325934434</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4307096666666666</v>
+        <v>0.4307096666666667</v>
       </c>
       <c r="N6">
         <v>1.292129</v>
       </c>
       <c r="O6">
-        <v>0.2203884316493949</v>
+        <v>0.2130686423127578</v>
       </c>
       <c r="P6">
-        <v>0.220388431649395</v>
+        <v>0.2130686423127578</v>
       </c>
       <c r="Q6">
-        <v>0.5052992488905556</v>
+        <v>0.5052992488905557</v>
       </c>
       <c r="R6">
-        <v>4.547693240015</v>
+        <v>4.547693240015001</v>
       </c>
       <c r="S6">
-        <v>0.1487009307381386</v>
+        <v>0.1966838837321898</v>
       </c>
       <c r="T6">
-        <v>0.1487009307381386</v>
+        <v>0.1966838837321898</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.519535</v>
       </c>
       <c r="I7">
-        <v>0.6747220333901172</v>
+        <v>0.9231010325934437</v>
       </c>
       <c r="J7">
-        <v>0.6747220333901172</v>
+        <v>0.9231010325934434</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>4.182957</v>
       </c>
       <c r="O7">
-        <v>0.7134545644334723</v>
+        <v>0.68975850618835</v>
       </c>
       <c r="P7">
-        <v>0.7134545644334724</v>
+        <v>0.68975850618835</v>
       </c>
       <c r="Q7">
         <v>1.635784840555</v>
@@ -880,10 +880,10 @@
         <v>14.722063564995</v>
       </c>
       <c r="S7">
-        <v>0.4813835144460128</v>
+        <v>0.6367167893025771</v>
       </c>
       <c r="T7">
-        <v>0.4813835144460129</v>
+        <v>0.6367167893025769</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>0.214649</v>
       </c>
       <c r="I8">
-        <v>0.04114987057811764</v>
+        <v>0.05629798071198328</v>
       </c>
       <c r="J8">
-        <v>0.04114987057811763</v>
+        <v>0.05629798071198327</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.129292</v>
+        <v>0.196431</v>
       </c>
       <c r="N8">
-        <v>0.387876</v>
+        <v>0.589293</v>
       </c>
       <c r="O8">
-        <v>0.06615700391713267</v>
+        <v>0.09717285149889213</v>
       </c>
       <c r="P8">
-        <v>0.06615700391713268</v>
+        <v>0.09717285149889213</v>
       </c>
       <c r="Q8">
-        <v>0.009250799502666666</v>
+        <v>0.014054572573</v>
       </c>
       <c r="R8">
-        <v>0.08325719552399999</v>
+        <v>0.126491153157</v>
       </c>
       <c r="S8">
-        <v>0.002722352149026031</v>
+        <v>0.005470635319413044</v>
       </c>
       <c r="T8">
-        <v>0.002722352149026031</v>
+        <v>0.005470635319413043</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.214649</v>
       </c>
       <c r="I9">
-        <v>0.04114987057811764</v>
+        <v>0.05629798071198328</v>
       </c>
       <c r="J9">
-        <v>0.04114987057811763</v>
+        <v>0.05629798071198327</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,16 +986,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4307096666666666</v>
+        <v>0.4307096666666667</v>
       </c>
       <c r="N9">
         <v>1.292129</v>
       </c>
       <c r="O9">
-        <v>0.2203884316493949</v>
+        <v>0.2130686423127578</v>
       </c>
       <c r="P9">
-        <v>0.220388431649395</v>
+        <v>0.2130686423127578</v>
       </c>
       <c r="Q9">
         <v>0.03081713308011111</v>
@@ -1004,10 +1004,10 @@
         <v>0.277354197721</v>
       </c>
       <c r="S9">
-        <v>0.009068955439286926</v>
+        <v>0.0119953343152521</v>
       </c>
       <c r="T9">
-        <v>0.009068955439286925</v>
+        <v>0.0119953343152521</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.214649</v>
       </c>
       <c r="I10">
-        <v>0.04114987057811764</v>
+        <v>0.05629798071198328</v>
       </c>
       <c r="J10">
-        <v>0.04114987057811763</v>
+        <v>0.05629798071198327</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>4.182957</v>
       </c>
       <c r="O10">
-        <v>0.7134545644334723</v>
+        <v>0.68975850618835</v>
       </c>
       <c r="P10">
-        <v>0.7134545644334724</v>
+        <v>0.68975850618835</v>
       </c>
       <c r="Q10">
         <v>0.099763059677</v>
       </c>
       <c r="R10">
-        <v>0.8978675370929999</v>
+        <v>0.897867537093</v>
       </c>
       <c r="S10">
-        <v>0.02935856298980468</v>
+        <v>0.03883201107731812</v>
       </c>
       <c r="T10">
-        <v>0.02935856298980467</v>
+        <v>0.03883201107731812</v>
       </c>
     </row>
   </sheetData>
